--- a/dados/JSSP.xlsx
+++ b/dados/JSSP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juliano\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E36CB14-6B4D-43DD-8C2E-F23AB8EAAD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA8EA3F-9CD4-4B8F-9144-8E46ADCEA5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Machines Sequence" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -357,149 +353,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>2</v>
       </c>
       <c r="B2" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
       <c r="F3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="G3" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>4</v>
-      </c>
       <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
       <c r="C5" s="1">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="1">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1">
-        <v>6</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>6</v>
-      </c>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1">
         <v>3</v>
       </c>
     </row>
@@ -511,46 +489,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1">
         <v>1</v>
       </c>
       <c r="B1" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>10</v>
@@ -559,101 +534,86 @@
         <v>10</v>
       </c>
       <c r="F2" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1">
         <v>10</v>
       </c>
-      <c r="G2" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1">
-        <v>3</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1">
-        <v>9</v>
-      </c>
       <c r="E6" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F6" s="1">
-        <v>4</v>
-      </c>
-      <c r="G6" s="1">
         <v>1</v>
       </c>
     </row>
